--- a/tests/testthat/mtmk_v13/Chapter04IRT.xlsx
+++ b/tests/testthat/mtmk_v13/Chapter04IRT.xlsx
@@ -25,7 +25,7 @@
     <t>Analysis Date</t>
   </si>
   <si>
-    <t>Wed 28 Jun 2023 10:48:55</t>
+    <t>Thu 29 Jun 2023 17:16:23</t>
   </si>
   <si>
     <t>N of Items</t>
